--- a/tools/in/关卡系统.xlsx
+++ b/tools/in/关卡系统.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
   <si>
     <t>关卡数</t>
   </si>
@@ -40,7 +40,7 @@
     <t>name</t>
   </si>
   <si>
-    <t>mushroom_1#tiaoqi_2#football_3#yaling_4#chilun_5#youyongquan_6#jiaonang_7#xiaoguaishou_8</t>
+    <t>goods</t>
   </si>
   <si>
     <t>object_pairs_count</t>
@@ -52,6 +52,9 @@
     <t>Lv.1</t>
   </si>
   <si>
+    <t>mushroom_1#football_3#yaling_4#chilun_5#youyongquan_6#jiaonang_7#xiaoguaishou_8</t>
+  </si>
+  <si>
     <t>Lv.2</t>
   </si>
   <si>
@@ -127,7 +130,19 @@
     <t>最大金币</t>
   </si>
   <si>
+    <t>per</t>
+  </si>
+  <si>
+    <t>minGold</t>
+  </si>
+  <si>
+    <t>maxGold</t>
+  </si>
+  <si>
     <t>星星数量</t>
+  </si>
+  <si>
+    <t>starNum</t>
   </si>
 </sst>
 </file>
@@ -212,28 +227,8 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
@@ -318,8 +313,8 @@
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="D3" s="3" t="n">
         <v>10.0</v>
@@ -343,10 +338,10 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="D4" s="3" t="n">
         <v>20.0</v>
@@ -370,10 +365,10 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="D5" s="3" t="n">
         <v>50.0</v>
@@ -397,10 +392,10 @@
         <v>4.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="D6" s="3" t="n">
         <v>50.0</v>
@@ -424,10 +419,10 @@
         <v>5.0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="D7" s="3" t="n">
         <v>60.0</v>
@@ -451,10 +446,10 @@
         <v>6.0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="D8" s="3" t="n">
         <v>80.0</v>
@@ -478,10 +473,10 @@
         <v>7.0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="D9" s="3" t="n">
         <v>80.0</v>
@@ -505,10 +500,10 @@
         <v>8.0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="D10" s="3" t="n">
         <v>100.0</v>
@@ -532,10 +527,10 @@
         <v>9.0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>7</v>
+        <v>19</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="D11" s="3" t="n">
         <v>100.0</v>
@@ -559,10 +554,10 @@
         <v>10.0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>7</v>
+        <v>20</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="D12" s="3" t="n">
         <v>100.0</v>
@@ -586,10 +581,10 @@
         <v>11.0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="D13" s="3" t="n">
         <v>110.0</v>
@@ -982,12 +977,11 @@
 </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1000,18 +994,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
@@ -1019,7 +1013,7 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="5" t="n">
-        <v>100000.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="4">
@@ -1814,12 +1808,11 @@
 </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1833,35 +1826,35 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B3" s="7" t="n">
         <v>20.0</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4">
@@ -2851,12 +2844,11 @@
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2870,86 +2862,95 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" customHeight="1" ht="13.0">
-      <c r="A2" s="9" t="n">
+      <c r="A2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" ht="13.0">
+      <c r="A3" s="9" t="n">
         <v>0.0</v>
       </c>
-      <c r="B2" s="10" t="n">
+      <c r="B3" s="10" t="n">
         <v>40.0</v>
       </c>
-      <c r="C2" s="10" t="n">
+      <c r="C3" s="10" t="n">
         <v>40.0</v>
       </c>
     </row>
-    <row r="3" customHeight="1" ht="13.0">
-      <c r="A3" s="10" t="n">
+    <row r="4" customHeight="1" ht="13.0">
+      <c r="A4" s="10" t="n">
         <v>20.0</v>
       </c>
-      <c r="B3" s="10" t="n">
+      <c r="B4" s="10" t="n">
         <v>50.0</v>
       </c>
-      <c r="C3" s="10" t="n">
+      <c r="C4" s="10" t="n">
         <v>60.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="10" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="B4" s="10" t="n">
-        <v>65.0</v>
-      </c>
-      <c r="C4" s="10" t="n">
-        <v>75.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="10" t="n">
-        <v>60.0</v>
+        <v>40.0</v>
       </c>
       <c r="B5" s="10" t="n">
-        <v>85.0</v>
+        <v>65.0</v>
       </c>
       <c r="C5" s="10" t="n">
-        <v>100.0</v>
+        <v>75.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="10" t="n">
-        <v>80.0</v>
+        <v>60.0</v>
       </c>
       <c r="B6" s="10" t="n">
-        <v>110.0</v>
+        <v>85.0</v>
       </c>
       <c r="C6" s="10" t="n">
-        <v>130.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="10" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="B7" s="10" t="n">
+        <v>110.0</v>
+      </c>
+      <c r="C7" s="10" t="n">
+        <v>130.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="10" t="n">
         <v>100.0</v>
       </c>
-      <c r="B7" s="10" t="n">
+      <c r="B8" s="10" t="n">
         <v>150.0</v>
       </c>
-      <c r="C7" s="10" t="n">
+      <c r="C8" s="10" t="n">
         <v>160.0</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="8"/>
-    </row>
     <row r="9">
-</row>
+      <c r="A9" s="8"/>
+    </row>
     <row r="10">
 </row>
     <row r="11">
@@ -3331,15 +3332,16 @@
     <row r="199">
 </row>
     <row r="200">
+</row>
+    <row r="201">
 </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3352,38 +3354,44 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="B2" s="10" t="n">
-        <v>1.0</v>
+      <c r="A2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="10" t="n">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
       <c r="B3" s="10" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="10" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="B4" s="10" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="10" t="n">
         <v>20.0</v>
       </c>
-      <c r="B4" s="10" t="n">
+      <c r="B5" s="10" t="n">
         <v>3.0</v>
       </c>
     </row>
-    <row r="5">
-</row>
     <row r="6">
 </row>
     <row r="7">
@@ -3767,9 +3775,10 @@
     <row r="196">
 </row>
     <row r="197">
+</row>
+    <row r="198">
 </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/tools/in/关卡系统.xlsx
+++ b/tools/in/关卡系统.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="142">
   <si>
     <t>关卡数</t>
   </si>
@@ -85,6 +85,294 @@
     <t>Lv.11</t>
   </si>
   <si>
+    <t>Lv.12</t>
+  </si>
+  <si>
+    <t>Lv.13</t>
+  </si>
+  <si>
+    <t>Lv.14</t>
+  </si>
+  <si>
+    <t>Lv.15</t>
+  </si>
+  <si>
+    <t>Lv.16</t>
+  </si>
+  <si>
+    <t>Lv.17</t>
+  </si>
+  <si>
+    <t>Lv.18</t>
+  </si>
+  <si>
+    <t>Lv.19</t>
+  </si>
+  <si>
+    <t>Lv.20</t>
+  </si>
+  <si>
+    <t>Lv.21</t>
+  </si>
+  <si>
+    <t>Lv.22</t>
+  </si>
+  <si>
+    <t>Lv.23</t>
+  </si>
+  <si>
+    <t>Lv.24</t>
+  </si>
+  <si>
+    <t>Lv.25</t>
+  </si>
+  <si>
+    <t>Lv.26</t>
+  </si>
+  <si>
+    <t>Lv.27</t>
+  </si>
+  <si>
+    <t>Lv.28</t>
+  </si>
+  <si>
+    <t>Lv.29</t>
+  </si>
+  <si>
+    <t>Lv.30</t>
+  </si>
+  <si>
+    <t>Lv.31</t>
+  </si>
+  <si>
+    <t>Lv.32</t>
+  </si>
+  <si>
+    <t>Lv.33</t>
+  </si>
+  <si>
+    <t>Lv.34</t>
+  </si>
+  <si>
+    <t>Lv.35</t>
+  </si>
+  <si>
+    <t>Lv.36</t>
+  </si>
+  <si>
+    <t>Lv.37</t>
+  </si>
+  <si>
+    <t>Lv.38</t>
+  </si>
+  <si>
+    <t>Lv.39</t>
+  </si>
+  <si>
+    <t>Lv.40</t>
+  </si>
+  <si>
+    <t>Lv.41</t>
+  </si>
+  <si>
+    <t>Lv.42</t>
+  </si>
+  <si>
+    <t>Lv.43</t>
+  </si>
+  <si>
+    <t>Lv.44</t>
+  </si>
+  <si>
+    <t>Lv.45</t>
+  </si>
+  <si>
+    <t>Lv.46</t>
+  </si>
+  <si>
+    <t>Lv.47</t>
+  </si>
+  <si>
+    <t>Lv.48</t>
+  </si>
+  <si>
+    <t>Lv.49</t>
+  </si>
+  <si>
+    <t>Lv.50</t>
+  </si>
+  <si>
+    <t>Lv.51</t>
+  </si>
+  <si>
+    <t>Lv.52</t>
+  </si>
+  <si>
+    <t>Lv.53</t>
+  </si>
+  <si>
+    <t>Lv.54</t>
+  </si>
+  <si>
+    <t>Lv.55</t>
+  </si>
+  <si>
+    <t>Lv.56</t>
+  </si>
+  <si>
+    <t>Lv.57</t>
+  </si>
+  <si>
+    <t>Lv.58</t>
+  </si>
+  <si>
+    <t>Lv.59</t>
+  </si>
+  <si>
+    <t>Lv.60</t>
+  </si>
+  <si>
+    <t>Lv.61</t>
+  </si>
+  <si>
+    <t>Lv.62</t>
+  </si>
+  <si>
+    <t>Lv.63</t>
+  </si>
+  <si>
+    <t>Lv.64</t>
+  </si>
+  <si>
+    <t>Lv.65</t>
+  </si>
+  <si>
+    <t>Lv.66</t>
+  </si>
+  <si>
+    <t>Lv.67</t>
+  </si>
+  <si>
+    <t>Lv.68</t>
+  </si>
+  <si>
+    <t>Lv.69</t>
+  </si>
+  <si>
+    <t>Lv.70</t>
+  </si>
+  <si>
+    <t>Lv.71</t>
+  </si>
+  <si>
+    <t>Lv.72</t>
+  </si>
+  <si>
+    <t>Lv.73</t>
+  </si>
+  <si>
+    <t>Lv.74</t>
+  </si>
+  <si>
+    <t>Lv.75</t>
+  </si>
+  <si>
+    <t>Lv.76</t>
+  </si>
+  <si>
+    <t>Lv.77</t>
+  </si>
+  <si>
+    <t>Lv.78</t>
+  </si>
+  <si>
+    <t>Lv.79</t>
+  </si>
+  <si>
+    <t>Lv.80</t>
+  </si>
+  <si>
+    <t>Lv.81</t>
+  </si>
+  <si>
+    <t>Lv.82</t>
+  </si>
+  <si>
+    <t>Lv.83</t>
+  </si>
+  <si>
+    <t>Lv.84</t>
+  </si>
+  <si>
+    <t>Lv.85</t>
+  </si>
+  <si>
+    <t>Lv.86</t>
+  </si>
+  <si>
+    <t>Lv.87</t>
+  </si>
+  <si>
+    <t>Lv.88</t>
+  </si>
+  <si>
+    <t>Lv.89</t>
+  </si>
+  <si>
+    <t>Lv.90</t>
+  </si>
+  <si>
+    <t>Lv.91</t>
+  </si>
+  <si>
+    <t>Lv.92</t>
+  </si>
+  <si>
+    <t>Lv.93</t>
+  </si>
+  <si>
+    <t>Lv.94</t>
+  </si>
+  <si>
+    <t>Lv.95</t>
+  </si>
+  <si>
+    <t>Lv.96</t>
+  </si>
+  <si>
+    <t>Lv.97</t>
+  </si>
+  <si>
+    <t>Lv.98</t>
+  </si>
+  <si>
+    <t>Lv.99</t>
+  </si>
+  <si>
+    <t>Lv.100</t>
+  </si>
+  <si>
+    <t>Lv.101</t>
+  </si>
+  <si>
+    <t>Lv.102</t>
+  </si>
+  <si>
+    <t>Lv.103</t>
+  </si>
+  <si>
+    <t>Lv.104</t>
+  </si>
+  <si>
+    <t>Lv.105</t>
+  </si>
+  <si>
+    <t>Lv.106</t>
+  </si>
+  <si>
+    <t>Lv.107</t>
+  </si>
+  <si>
     <t>层</t>
   </si>
   <si>
@@ -119,6 +407,18 @@
   </si>
   <si>
     <t>星星总数 单个关卡对数*value</t>
+  </si>
+  <si>
+    <t>star_box_max_cnt</t>
+  </si>
+  <si>
+    <t>开启宝箱的条件</t>
+  </si>
+  <si>
+    <t>level_box_nct</t>
+  </si>
+  <si>
+    <t>关卡宝箱开启条件</t>
   </si>
   <si>
     <t>星星百分百</t>
@@ -604,197 +904,1637 @@
       <c r="O13" s="2"/>
     </row>
     <row r="14">
-</row>
+      <c r="A14" s="3" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="3" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="E14" s="3" t="n">
+        <v>840.0</v>
+      </c>
+    </row>
     <row r="15">
-</row>
+      <c r="A15" s="3" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="3" t="n">
+        <v>130.0</v>
+      </c>
+      <c r="E15" s="3" t="n">
+        <v>840.0</v>
+      </c>
+    </row>
     <row r="16">
-</row>
+      <c r="A16" s="3" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="3" t="n">
+        <v>140.0</v>
+      </c>
+      <c r="E16" s="3" t="n">
+        <v>840.0</v>
+      </c>
+    </row>
     <row r="17">
-</row>
+      <c r="A17" s="3" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="3" t="n">
+        <v>150.0</v>
+      </c>
+      <c r="E17" s="3" t="n">
+        <v>840.0</v>
+      </c>
+    </row>
     <row r="18">
-</row>
+      <c r="A18" s="3" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="3" t="n">
+        <v>160.0</v>
+      </c>
+      <c r="E18" s="3" t="n">
+        <v>840.0</v>
+      </c>
+    </row>
     <row r="19">
-</row>
+      <c r="A19" s="3" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="3" t="n">
+        <v>170.0</v>
+      </c>
+      <c r="E19" s="3" t="n">
+        <v>840.0</v>
+      </c>
+    </row>
     <row r="20">
-</row>
+      <c r="A20" s="3" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="3" t="n">
+        <v>180.0</v>
+      </c>
+      <c r="E20" s="3" t="n">
+        <v>840.0</v>
+      </c>
+    </row>
     <row r="21">
-</row>
+      <c r="A21" s="3" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="3" t="n">
+        <v>190.0</v>
+      </c>
+      <c r="E21" s="3" t="n">
+        <v>840.0</v>
+      </c>
+    </row>
     <row r="22">
-</row>
+      <c r="A22" s="3" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="3" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="E22" s="3" t="n">
+        <v>840.0</v>
+      </c>
+    </row>
     <row r="23">
-</row>
+      <c r="A23" s="3" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="3" t="n">
+        <v>210.0</v>
+      </c>
+      <c r="E23" s="3" t="n">
+        <v>840.0</v>
+      </c>
+    </row>
     <row r="24">
-</row>
+      <c r="A24" s="3" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="3" t="n">
+        <v>220.0</v>
+      </c>
+      <c r="E24" s="3" t="n">
+        <v>840.0</v>
+      </c>
+    </row>
     <row r="25">
-</row>
+      <c r="A25" s="3" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="3" t="n">
+        <v>230.0</v>
+      </c>
+      <c r="E25" s="3" t="n">
+        <v>840.0</v>
+      </c>
+    </row>
     <row r="26">
-</row>
+      <c r="A26" s="3" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="3" t="n">
+        <v>240.0</v>
+      </c>
+      <c r="E26" s="3" t="n">
+        <v>840.0</v>
+      </c>
+    </row>
     <row r="27">
-</row>
+      <c r="A27" s="3" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="3" t="n">
+        <v>250.0</v>
+      </c>
+      <c r="E27" s="3" t="n">
+        <v>840.0</v>
+      </c>
+    </row>
     <row r="28">
-</row>
+      <c r="A28" s="3" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="3" t="n">
+        <v>260.0</v>
+      </c>
+      <c r="E28" s="3" t="n">
+        <v>840.0</v>
+      </c>
+    </row>
     <row r="29">
-</row>
+      <c r="A29" s="3" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="3" t="n">
+        <v>270.0</v>
+      </c>
+      <c r="E29" s="3" t="n">
+        <v>840.0</v>
+      </c>
+    </row>
     <row r="30">
-</row>
+      <c r="A30" s="3" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="3" t="n">
+        <v>280.0</v>
+      </c>
+      <c r="E30" s="3" t="n">
+        <v>840.0</v>
+      </c>
+    </row>
     <row r="31">
-</row>
+      <c r="A31" s="3" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="3" t="n">
+        <v>290.0</v>
+      </c>
+      <c r="E31" s="3" t="n">
+        <v>840.0</v>
+      </c>
+    </row>
     <row r="32">
-</row>
+      <c r="A32" s="3" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="3" t="n">
+        <v>300.0</v>
+      </c>
+      <c r="E32" s="3" t="n">
+        <v>840.0</v>
+      </c>
+    </row>
     <row r="33">
-</row>
+      <c r="A33" s="3" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="3" t="n">
+        <v>310.0</v>
+      </c>
+      <c r="E33" s="3" t="n">
+        <v>840.0</v>
+      </c>
+    </row>
     <row r="34">
-</row>
+      <c r="A34" s="3" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="3" t="n">
+        <v>320.0</v>
+      </c>
+      <c r="E34" s="3" t="n">
+        <v>840.0</v>
+      </c>
+    </row>
     <row r="35">
-</row>
+      <c r="A35" s="3" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="3" t="n">
+        <v>330.0</v>
+      </c>
+      <c r="E35" s="3" t="n">
+        <v>840.0</v>
+      </c>
+    </row>
     <row r="36">
-</row>
+      <c r="A36" s="3" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="3" t="n">
+        <v>340.0</v>
+      </c>
+      <c r="E36" s="3" t="n">
+        <v>840.0</v>
+      </c>
+    </row>
     <row r="37">
-</row>
+      <c r="A37" s="3" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" s="3" t="n">
+        <v>350.0</v>
+      </c>
+      <c r="E37" s="3" t="n">
+        <v>840.0</v>
+      </c>
+    </row>
     <row r="38">
-</row>
+      <c r="A38" s="3" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" s="3" t="n">
+        <v>360.0</v>
+      </c>
+      <c r="E38" s="3" t="n">
+        <v>840.0</v>
+      </c>
+    </row>
     <row r="39">
-</row>
+      <c r="A39" s="3" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="3" t="n">
+        <v>370.0</v>
+      </c>
+      <c r="E39" s="3" t="n">
+        <v>840.0</v>
+      </c>
+    </row>
     <row r="40">
-</row>
+      <c r="A40" s="3" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" s="3" t="n">
+        <v>380.0</v>
+      </c>
+      <c r="E40" s="3" t="n">
+        <v>840.0</v>
+      </c>
+    </row>
     <row r="41">
-</row>
+      <c r="A41" s="3" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" s="3" t="n">
+        <v>390.0</v>
+      </c>
+      <c r="E41" s="3" t="n">
+        <v>840.0</v>
+      </c>
+    </row>
     <row r="42">
-</row>
+      <c r="A42" s="3" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" s="3" t="n">
+        <v>400.0</v>
+      </c>
+      <c r="E42" s="3" t="n">
+        <v>840.0</v>
+      </c>
+    </row>
     <row r="43">
-</row>
+      <c r="A43" s="3" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" s="3" t="n">
+        <v>410.0</v>
+      </c>
+      <c r="E43" s="3" t="n">
+        <v>840.0</v>
+      </c>
+    </row>
     <row r="44">
-</row>
+      <c r="A44" s="3" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" s="3" t="n">
+        <v>420.0</v>
+      </c>
+      <c r="E44" s="3" t="n">
+        <v>840.0</v>
+      </c>
+    </row>
     <row r="45">
-</row>
+      <c r="A45" s="3" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" s="3" t="n">
+        <v>430.0</v>
+      </c>
+      <c r="E45" s="3" t="n">
+        <v>840.0</v>
+      </c>
+    </row>
     <row r="46">
-</row>
+      <c r="A46" s="3" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" s="3" t="n">
+        <v>440.0</v>
+      </c>
+      <c r="E46" s="3" t="n">
+        <v>840.0</v>
+      </c>
+    </row>
     <row r="47">
-</row>
+      <c r="A47" s="3" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" s="3" t="n">
+        <v>450.0</v>
+      </c>
+      <c r="E47" s="3" t="n">
+        <v>840.0</v>
+      </c>
+    </row>
     <row r="48">
-</row>
+      <c r="A48" s="3" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" s="3" t="n">
+        <v>460.0</v>
+      </c>
+      <c r="E48" s="3" t="n">
+        <v>840.0</v>
+      </c>
+    </row>
     <row r="49">
-</row>
+      <c r="A49" s="3" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" s="3" t="n">
+        <v>470.0</v>
+      </c>
+      <c r="E49" s="3" t="n">
+        <v>840.0</v>
+      </c>
+    </row>
     <row r="50">
-</row>
+      <c r="A50" s="3" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50" s="3" t="n">
+        <v>480.0</v>
+      </c>
+      <c r="E50" s="3" t="n">
+        <v>840.0</v>
+      </c>
+    </row>
     <row r="51">
-</row>
+      <c r="A51" s="3" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51" s="3" t="n">
+        <v>490.0</v>
+      </c>
+      <c r="E51" s="3" t="n">
+        <v>840.0</v>
+      </c>
+    </row>
     <row r="52">
-</row>
+      <c r="A52" s="3" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D52" s="3" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="E52" s="3" t="n">
+        <v>840.0</v>
+      </c>
+    </row>
     <row r="53">
-</row>
+      <c r="A53" s="3" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D53" s="3" t="n">
+        <v>510.0</v>
+      </c>
+      <c r="E53" s="3" t="n">
+        <v>840.0</v>
+      </c>
+    </row>
     <row r="54">
-</row>
+      <c r="A54" s="3" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D54" s="3" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="E54" s="3" t="n">
+        <v>840.0</v>
+      </c>
+    </row>
     <row r="55">
-</row>
+      <c r="A55" s="3" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D55" s="3" t="n">
+        <v>530.0</v>
+      </c>
+      <c r="E55" s="3" t="n">
+        <v>840.0</v>
+      </c>
+    </row>
     <row r="56">
-</row>
+      <c r="A56" s="3" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56" s="3" t="n">
+        <v>540.0</v>
+      </c>
+      <c r="E56" s="3" t="n">
+        <v>840.0</v>
+      </c>
+    </row>
     <row r="57">
-</row>
+      <c r="A57" s="3" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57" s="3" t="n">
+        <v>550.0</v>
+      </c>
+      <c r="E57" s="3" t="n">
+        <v>840.0</v>
+      </c>
+    </row>
     <row r="58">
-</row>
+      <c r="A58" s="3" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58" s="3" t="n">
+        <v>560.0</v>
+      </c>
+      <c r="E58" s="3" t="n">
+        <v>840.0</v>
+      </c>
+    </row>
     <row r="59">
-</row>
+      <c r="A59" s="3" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D59" s="3" t="n">
+        <v>570.0</v>
+      </c>
+      <c r="E59" s="3" t="n">
+        <v>840.0</v>
+      </c>
+    </row>
     <row r="60">
-</row>
+      <c r="A60" s="3" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D60" s="3" t="n">
+        <v>580.0</v>
+      </c>
+      <c r="E60" s="3" t="n">
+        <v>840.0</v>
+      </c>
+    </row>
     <row r="61">
-</row>
+      <c r="A61" s="3" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D61" s="3" t="n">
+        <v>590.0</v>
+      </c>
+      <c r="E61" s="3" t="n">
+        <v>840.0</v>
+      </c>
+    </row>
     <row r="62">
-</row>
+      <c r="A62" s="3" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D62" s="3" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="E62" s="3" t="n">
+        <v>840.0</v>
+      </c>
+    </row>
     <row r="63">
-</row>
+      <c r="A63" s="3" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D63" s="3" t="n">
+        <v>610.0</v>
+      </c>
+      <c r="E63" s="3" t="n">
+        <v>840.0</v>
+      </c>
+    </row>
     <row r="64">
-</row>
+      <c r="A64" s="3" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D64" s="3" t="n">
+        <v>620.0</v>
+      </c>
+      <c r="E64" s="3" t="n">
+        <v>840.0</v>
+      </c>
+    </row>
     <row r="65">
-</row>
+      <c r="A65" s="3" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D65" s="3" t="n">
+        <v>630.0</v>
+      </c>
+      <c r="E65" s="3" t="n">
+        <v>840.0</v>
+      </c>
+    </row>
     <row r="66">
-</row>
+      <c r="A66" s="3" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D66" s="3" t="n">
+        <v>640.0</v>
+      </c>
+      <c r="E66" s="3" t="n">
+        <v>840.0</v>
+      </c>
+    </row>
     <row r="67">
-</row>
+      <c r="A67" s="3" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D67" s="3" t="n">
+        <v>650.0</v>
+      </c>
+      <c r="E67" s="3" t="n">
+        <v>840.0</v>
+      </c>
+    </row>
     <row r="68">
-</row>
+      <c r="A68" s="3" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D68" s="3" t="n">
+        <v>660.0</v>
+      </c>
+      <c r="E68" s="3" t="n">
+        <v>840.0</v>
+      </c>
+    </row>
     <row r="69">
-</row>
+      <c r="A69" s="3" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D69" s="3" t="n">
+        <v>670.0</v>
+      </c>
+      <c r="E69" s="3" t="n">
+        <v>840.0</v>
+      </c>
+    </row>
     <row r="70">
-</row>
+      <c r="A70" s="3" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D70" s="3" t="n">
+        <v>680.0</v>
+      </c>
+      <c r="E70" s="3" t="n">
+        <v>840.0</v>
+      </c>
+    </row>
     <row r="71">
-</row>
+      <c r="A71" s="3" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D71" s="3" t="n">
+        <v>690.0</v>
+      </c>
+      <c r="E71" s="3" t="n">
+        <v>840.0</v>
+      </c>
+    </row>
     <row r="72">
-</row>
+      <c r="A72" s="3" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D72" s="3" t="n">
+        <v>700.0</v>
+      </c>
+      <c r="E72" s="3" t="n">
+        <v>840.0</v>
+      </c>
+    </row>
     <row r="73">
-</row>
+      <c r="A73" s="3" t="n">
+        <v>71.0</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D73" s="3" t="n">
+        <v>710.0</v>
+      </c>
+      <c r="E73" s="3" t="n">
+        <v>840.0</v>
+      </c>
+    </row>
     <row r="74">
-</row>
+      <c r="A74" s="3" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D74" s="3" t="n">
+        <v>720.0</v>
+      </c>
+      <c r="E74" s="3" t="n">
+        <v>840.0</v>
+      </c>
+    </row>
     <row r="75">
-</row>
+      <c r="A75" s="3" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D75" s="3" t="n">
+        <v>730.0</v>
+      </c>
+      <c r="E75" s="3" t="n">
+        <v>840.0</v>
+      </c>
+    </row>
     <row r="76">
-</row>
+      <c r="A76" s="3" t="n">
+        <v>74.0</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D76" s="3" t="n">
+        <v>740.0</v>
+      </c>
+      <c r="E76" s="3" t="n">
+        <v>840.0</v>
+      </c>
+    </row>
     <row r="77">
-</row>
+      <c r="A77" s="3" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D77" s="3" t="n">
+        <v>750.0</v>
+      </c>
+      <c r="E77" s="3" t="n">
+        <v>840.0</v>
+      </c>
+    </row>
     <row r="78">
-</row>
+      <c r="A78" s="3" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D78" s="3" t="n">
+        <v>760.0</v>
+      </c>
+      <c r="E78" s="3" t="n">
+        <v>840.0</v>
+      </c>
+    </row>
     <row r="79">
-</row>
+      <c r="A79" s="3" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D79" s="3" t="n">
+        <v>770.0</v>
+      </c>
+      <c r="E79" s="3" t="n">
+        <v>840.0</v>
+      </c>
+    </row>
     <row r="80">
-</row>
+      <c r="A80" s="3" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D80" s="3" t="n">
+        <v>780.0</v>
+      </c>
+      <c r="E80" s="3" t="n">
+        <v>840.0</v>
+      </c>
+    </row>
     <row r="81">
-</row>
+      <c r="A81" s="3" t="n">
+        <v>79.0</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D81" s="3" t="n">
+        <v>790.0</v>
+      </c>
+      <c r="E81" s="3" t="n">
+        <v>840.0</v>
+      </c>
+    </row>
     <row r="82">
-</row>
+      <c r="A82" s="3" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D82" s="3" t="n">
+        <v>800.0</v>
+      </c>
+      <c r="E82" s="3" t="n">
+        <v>840.0</v>
+      </c>
+    </row>
     <row r="83">
-</row>
+      <c r="A83" s="3" t="n">
+        <v>81.0</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D83" s="3" t="n">
+        <v>810.0</v>
+      </c>
+      <c r="E83" s="3" t="n">
+        <v>840.0</v>
+      </c>
+    </row>
     <row r="84">
-</row>
+      <c r="A84" s="3" t="n">
+        <v>82.0</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D84" s="3" t="n">
+        <v>820.0</v>
+      </c>
+      <c r="E84" s="3" t="n">
+        <v>840.0</v>
+      </c>
+    </row>
     <row r="85">
-</row>
+      <c r="A85" s="3" t="n">
+        <v>83.0</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D85" s="3" t="n">
+        <v>830.0</v>
+      </c>
+      <c r="E85" s="3" t="n">
+        <v>840.0</v>
+      </c>
+    </row>
     <row r="86">
-</row>
+      <c r="A86" s="3" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D86" s="3" t="n">
+        <v>840.0</v>
+      </c>
+      <c r="E86" s="3" t="n">
+        <v>840.0</v>
+      </c>
+    </row>
     <row r="87">
-</row>
+      <c r="A87" s="3" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D87" s="3" t="n">
+        <v>850.0</v>
+      </c>
+      <c r="E87" s="3" t="n">
+        <v>840.0</v>
+      </c>
+    </row>
     <row r="88">
-</row>
+      <c r="A88" s="3" t="n">
+        <v>86.0</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D88" s="3" t="n">
+        <v>860.0</v>
+      </c>
+      <c r="E88" s="3" t="n">
+        <v>840.0</v>
+      </c>
+    </row>
     <row r="89">
-</row>
+      <c r="A89" s="3" t="n">
+        <v>87.0</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D89" s="3" t="n">
+        <v>870.0</v>
+      </c>
+      <c r="E89" s="3" t="n">
+        <v>840.0</v>
+      </c>
+    </row>
     <row r="90">
-</row>
+      <c r="A90" s="3" t="n">
+        <v>88.0</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D90" s="3" t="n">
+        <v>880.0</v>
+      </c>
+      <c r="E90" s="3" t="n">
+        <v>840.0</v>
+      </c>
+    </row>
     <row r="91">
-</row>
+      <c r="A91" s="3" t="n">
+        <v>89.0</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D91" s="3" t="n">
+        <v>890.0</v>
+      </c>
+      <c r="E91" s="3" t="n">
+        <v>840.0</v>
+      </c>
+    </row>
     <row r="92">
-</row>
+      <c r="A92" s="3" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D92" s="3" t="n">
+        <v>900.0</v>
+      </c>
+      <c r="E92" s="3" t="n">
+        <v>840.0</v>
+      </c>
+    </row>
     <row r="93">
-</row>
+      <c r="A93" s="3" t="n">
+        <v>91.0</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D93" s="3" t="n">
+        <v>910.0</v>
+      </c>
+      <c r="E93" s="3" t="n">
+        <v>840.0</v>
+      </c>
+    </row>
     <row r="94">
-</row>
+      <c r="A94" s="3" t="n">
+        <v>92.0</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D94" s="3" t="n">
+        <v>920.0</v>
+      </c>
+      <c r="E94" s="3" t="n">
+        <v>840.0</v>
+      </c>
+    </row>
     <row r="95">
-</row>
+      <c r="A95" s="3" t="n">
+        <v>93.0</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D95" s="3" t="n">
+        <v>930.0</v>
+      </c>
+      <c r="E95" s="3" t="n">
+        <v>840.0</v>
+      </c>
+    </row>
     <row r="96">
-</row>
+      <c r="A96" s="3" t="n">
+        <v>94.0</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D96" s="3" t="n">
+        <v>940.0</v>
+      </c>
+      <c r="E96" s="3" t="n">
+        <v>840.0</v>
+      </c>
+    </row>
     <row r="97">
-</row>
+      <c r="A97" s="3" t="n">
+        <v>95.0</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D97" s="3" t="n">
+        <v>950.0</v>
+      </c>
+      <c r="E97" s="3" t="n">
+        <v>840.0</v>
+      </c>
+    </row>
     <row r="98">
-</row>
+      <c r="A98" s="3" t="n">
+        <v>96.0</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D98" s="3" t="n">
+        <v>960.0</v>
+      </c>
+      <c r="E98" s="3" t="n">
+        <v>840.0</v>
+      </c>
+    </row>
     <row r="99">
-</row>
+      <c r="A99" s="3" t="n">
+        <v>97.0</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D99" s="3" t="n">
+        <v>970.0</v>
+      </c>
+      <c r="E99" s="3" t="n">
+        <v>840.0</v>
+      </c>
+    </row>
     <row r="100">
-</row>
+      <c r="A100" s="3" t="n">
+        <v>98.0</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D100" s="3" t="n">
+        <v>980.0</v>
+      </c>
+      <c r="E100" s="3" t="n">
+        <v>840.0</v>
+      </c>
+    </row>
     <row r="101">
-</row>
+      <c r="A101" s="3" t="n">
+        <v>99.0</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D101" s="3" t="n">
+        <v>990.0</v>
+      </c>
+      <c r="E101" s="3" t="n">
+        <v>840.0</v>
+      </c>
+    </row>
     <row r="102">
-</row>
+      <c r="A102" s="3" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D102" s="3" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="E102" s="3" t="n">
+        <v>840.0</v>
+      </c>
+    </row>
     <row r="103">
-</row>
+      <c r="A103" s="3" t="n">
+        <v>101.0</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D103" s="3" t="n">
+        <v>1010.0</v>
+      </c>
+      <c r="E103" s="3" t="n">
+        <v>840.0</v>
+      </c>
+    </row>
     <row r="104">
-</row>
+      <c r="A104" s="3" t="n">
+        <v>102.0</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D104" s="3" t="n">
+        <v>1020.0</v>
+      </c>
+      <c r="E104" s="3" t="n">
+        <v>840.0</v>
+      </c>
+    </row>
     <row r="105">
-</row>
+      <c r="A105" s="3" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D105" s="3" t="n">
+        <v>1030.0</v>
+      </c>
+      <c r="E105" s="3" t="n">
+        <v>840.0</v>
+      </c>
+    </row>
     <row r="106">
-</row>
+      <c r="A106" s="3" t="n">
+        <v>104.0</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D106" s="3" t="n">
+        <v>1040.0</v>
+      </c>
+      <c r="E106" s="3" t="n">
+        <v>840.0</v>
+      </c>
+    </row>
     <row r="107">
-</row>
+      <c r="A107" s="3" t="n">
+        <v>105.0</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D107" s="3" t="n">
+        <v>1050.0</v>
+      </c>
+      <c r="E107" s="3" t="n">
+        <v>840.0</v>
+      </c>
+    </row>
     <row r="108">
-</row>
+      <c r="A108" s="3" t="n">
+        <v>106.0</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D108" s="3" t="n">
+        <v>1060.0</v>
+      </c>
+      <c r="E108" s="3" t="n">
+        <v>840.0</v>
+      </c>
+    </row>
     <row r="109">
-</row>
+      <c r="A109" s="3" t="n">
+        <v>107.0</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D109" s="3" t="n">
+        <v>1070.0</v>
+      </c>
+      <c r="E109" s="3" t="n">
+        <v>840.0</v>
+      </c>
+    </row>
     <row r="110">
 </row>
     <row r="111">
@@ -994,18 +2734,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="4" t="s">
-        <v>22</v>
+        <v>118</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>23</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>24</v>
+        <v>120</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>25</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3">
@@ -1819,53 +3559,65 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.0" baseColWidth="10"/>
   <cols>
-    <col min="1" max="1" width="10.5" customWidth="true"/>
+    <col min="1" max="1" width="10.833333333333334" customWidth="true"/>
     <col min="2" max="2" width="3.6666666666666665" customWidth="true"/>
     <col min="3" max="3" width="17.5" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="6" t="s">
-        <v>26</v>
+        <v>122</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>27</v>
+        <v>123</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>28</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>29</v>
+        <v>125</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>30</v>
+        <v>126</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>31</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="B3" s="7" t="n">
         <v>20.0</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>33</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
+      <c r="A4" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B4" s="7" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
+      <c r="A5" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B5" s="7" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="6"/>
@@ -2862,24 +4614,24 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="8" t="s">
-        <v>34</v>
+        <v>134</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>35</v>
+        <v>135</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>36</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" customHeight="1" ht="13.0">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>137</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>39</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" customHeight="1" ht="13.0">
@@ -3354,18 +5106,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>34</v>
+        <v>134</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>40</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>137</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3">

--- a/tools/in/关卡系统.xlsx
+++ b/tools/in/关卡系统.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="61">
   <si>
     <t>关卡数</t>
   </si>
@@ -112,267 +112,6 @@
     <t>Lv.20</t>
   </si>
   <si>
-    <t>Lv.21</t>
-  </si>
-  <si>
-    <t>Lv.22</t>
-  </si>
-  <si>
-    <t>Lv.23</t>
-  </si>
-  <si>
-    <t>Lv.24</t>
-  </si>
-  <si>
-    <t>Lv.25</t>
-  </si>
-  <si>
-    <t>Lv.26</t>
-  </si>
-  <si>
-    <t>Lv.27</t>
-  </si>
-  <si>
-    <t>Lv.28</t>
-  </si>
-  <si>
-    <t>Lv.29</t>
-  </si>
-  <si>
-    <t>Lv.30</t>
-  </si>
-  <si>
-    <t>Lv.31</t>
-  </si>
-  <si>
-    <t>Lv.32</t>
-  </si>
-  <si>
-    <t>Lv.33</t>
-  </si>
-  <si>
-    <t>Lv.34</t>
-  </si>
-  <si>
-    <t>Lv.35</t>
-  </si>
-  <si>
-    <t>Lv.36</t>
-  </si>
-  <si>
-    <t>Lv.37</t>
-  </si>
-  <si>
-    <t>Lv.38</t>
-  </si>
-  <si>
-    <t>Lv.39</t>
-  </si>
-  <si>
-    <t>Lv.40</t>
-  </si>
-  <si>
-    <t>Lv.41</t>
-  </si>
-  <si>
-    <t>Lv.42</t>
-  </si>
-  <si>
-    <t>Lv.43</t>
-  </si>
-  <si>
-    <t>Lv.44</t>
-  </si>
-  <si>
-    <t>Lv.45</t>
-  </si>
-  <si>
-    <t>Lv.46</t>
-  </si>
-  <si>
-    <t>Lv.47</t>
-  </si>
-  <si>
-    <t>Lv.48</t>
-  </si>
-  <si>
-    <t>Lv.49</t>
-  </si>
-  <si>
-    <t>Lv.50</t>
-  </si>
-  <si>
-    <t>Lv.51</t>
-  </si>
-  <si>
-    <t>Lv.52</t>
-  </si>
-  <si>
-    <t>Lv.53</t>
-  </si>
-  <si>
-    <t>Lv.54</t>
-  </si>
-  <si>
-    <t>Lv.55</t>
-  </si>
-  <si>
-    <t>Lv.56</t>
-  </si>
-  <si>
-    <t>Lv.57</t>
-  </si>
-  <si>
-    <t>Lv.58</t>
-  </si>
-  <si>
-    <t>Lv.59</t>
-  </si>
-  <si>
-    <t>Lv.60</t>
-  </si>
-  <si>
-    <t>Lv.61</t>
-  </si>
-  <si>
-    <t>Lv.62</t>
-  </si>
-  <si>
-    <t>Lv.63</t>
-  </si>
-  <si>
-    <t>Lv.64</t>
-  </si>
-  <si>
-    <t>Lv.65</t>
-  </si>
-  <si>
-    <t>Lv.66</t>
-  </si>
-  <si>
-    <t>Lv.67</t>
-  </si>
-  <si>
-    <t>Lv.68</t>
-  </si>
-  <si>
-    <t>Lv.69</t>
-  </si>
-  <si>
-    <t>Lv.70</t>
-  </si>
-  <si>
-    <t>Lv.71</t>
-  </si>
-  <si>
-    <t>Lv.72</t>
-  </si>
-  <si>
-    <t>Lv.73</t>
-  </si>
-  <si>
-    <t>Lv.74</t>
-  </si>
-  <si>
-    <t>Lv.75</t>
-  </si>
-  <si>
-    <t>Lv.76</t>
-  </si>
-  <si>
-    <t>Lv.77</t>
-  </si>
-  <si>
-    <t>Lv.78</t>
-  </si>
-  <si>
-    <t>Lv.79</t>
-  </si>
-  <si>
-    <t>Lv.80</t>
-  </si>
-  <si>
-    <t>Lv.81</t>
-  </si>
-  <si>
-    <t>Lv.82</t>
-  </si>
-  <si>
-    <t>Lv.83</t>
-  </si>
-  <si>
-    <t>Lv.84</t>
-  </si>
-  <si>
-    <t>Lv.85</t>
-  </si>
-  <si>
-    <t>Lv.86</t>
-  </si>
-  <si>
-    <t>Lv.87</t>
-  </si>
-  <si>
-    <t>Lv.88</t>
-  </si>
-  <si>
-    <t>Lv.89</t>
-  </si>
-  <si>
-    <t>Lv.90</t>
-  </si>
-  <si>
-    <t>Lv.91</t>
-  </si>
-  <si>
-    <t>Lv.92</t>
-  </si>
-  <si>
-    <t>Lv.93</t>
-  </si>
-  <si>
-    <t>Lv.94</t>
-  </si>
-  <si>
-    <t>Lv.95</t>
-  </si>
-  <si>
-    <t>Lv.96</t>
-  </si>
-  <si>
-    <t>Lv.97</t>
-  </si>
-  <si>
-    <t>Lv.98</t>
-  </si>
-  <si>
-    <t>Lv.99</t>
-  </si>
-  <si>
-    <t>Lv.100</t>
-  </si>
-  <si>
-    <t>Lv.101</t>
-  </si>
-  <si>
-    <t>Lv.102</t>
-  </si>
-  <si>
-    <t>Lv.103</t>
-  </si>
-  <si>
-    <t>Lv.104</t>
-  </si>
-  <si>
-    <t>Lv.105</t>
-  </si>
-  <si>
-    <t>Lv.106</t>
-  </si>
-  <si>
-    <t>Lv.107</t>
-  </si>
-  <si>
     <t>层</t>
   </si>
   <si>
@@ -419,6 +158,24 @@
   </si>
   <si>
     <t>关卡宝箱开启条件</t>
+  </si>
+  <si>
+    <t>lookVidoGetGold</t>
+  </si>
+  <si>
+    <t>看视频获得金币数量</t>
+  </si>
+  <si>
+    <t>shareToWxGetGold</t>
+  </si>
+  <si>
+    <t>分享到微信获得金币</t>
+  </si>
+  <si>
+    <t>lookVidoGetHP</t>
+  </si>
+  <si>
+    <t>看视频获得生命数量</t>
   </si>
   <si>
     <t>星星百分百</t>
@@ -1057,1663 +814,184 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="3" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="3" t="n">
-        <v>210.0</v>
-      </c>
-      <c r="E23" s="3" t="n">
-        <v>840.0</v>
-      </c>
-    </row>
+</row>
     <row r="24">
-      <c r="A24" s="3" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="3" t="n">
-        <v>220.0</v>
-      </c>
-      <c r="E24" s="3" t="n">
-        <v>840.0</v>
-      </c>
-    </row>
+</row>
     <row r="25">
-      <c r="A25" s="3" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="3" t="n">
-        <v>230.0</v>
-      </c>
-      <c r="E25" s="3" t="n">
-        <v>840.0</v>
-      </c>
-    </row>
+</row>
     <row r="26">
-      <c r="A26" s="3" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" s="3" t="n">
-        <v>240.0</v>
-      </c>
-      <c r="E26" s="3" t="n">
-        <v>840.0</v>
-      </c>
-    </row>
+</row>
     <row r="27">
-      <c r="A27" s="3" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="3" t="n">
-        <v>250.0</v>
-      </c>
-      <c r="E27" s="3" t="n">
-        <v>840.0</v>
-      </c>
-    </row>
+</row>
     <row r="28">
-      <c r="A28" s="3" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" s="3" t="n">
-        <v>260.0</v>
-      </c>
-      <c r="E28" s="3" t="n">
-        <v>840.0</v>
-      </c>
-    </row>
+</row>
     <row r="29">
-      <c r="A29" s="3" t="n">
-        <v>27.0</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" s="3" t="n">
-        <v>270.0</v>
-      </c>
-      <c r="E29" s="3" t="n">
-        <v>840.0</v>
-      </c>
-    </row>
+</row>
     <row r="30">
-      <c r="A30" s="3" t="n">
-        <v>28.0</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" s="3" t="n">
-        <v>280.0</v>
-      </c>
-      <c r="E30" s="3" t="n">
-        <v>840.0</v>
-      </c>
-    </row>
+</row>
     <row r="31">
-      <c r="A31" s="3" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" s="3" t="n">
-        <v>290.0</v>
-      </c>
-      <c r="E31" s="3" t="n">
-        <v>840.0</v>
-      </c>
-    </row>
+</row>
     <row r="32">
-      <c r="A32" s="3" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" s="3" t="n">
-        <v>300.0</v>
-      </c>
-      <c r="E32" s="3" t="n">
-        <v>840.0</v>
-      </c>
-    </row>
+</row>
     <row r="33">
-      <c r="A33" s="3" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33" s="3" t="n">
-        <v>310.0</v>
-      </c>
-      <c r="E33" s="3" t="n">
-        <v>840.0</v>
-      </c>
-    </row>
+</row>
     <row r="34">
-      <c r="A34" s="3" t="n">
-        <v>32.0</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D34" s="3" t="n">
-        <v>320.0</v>
-      </c>
-      <c r="E34" s="3" t="n">
-        <v>840.0</v>
-      </c>
-    </row>
+</row>
     <row r="35">
-      <c r="A35" s="3" t="n">
-        <v>33.0</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35" s="3" t="n">
-        <v>330.0</v>
-      </c>
-      <c r="E35" s="3" t="n">
-        <v>840.0</v>
-      </c>
-    </row>
+</row>
     <row r="36">
-      <c r="A36" s="3" t="n">
-        <v>34.0</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D36" s="3" t="n">
-        <v>340.0</v>
-      </c>
-      <c r="E36" s="3" t="n">
-        <v>840.0</v>
-      </c>
-    </row>
+</row>
     <row r="37">
-      <c r="A37" s="3" t="n">
-        <v>35.0</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D37" s="3" t="n">
-        <v>350.0</v>
-      </c>
-      <c r="E37" s="3" t="n">
-        <v>840.0</v>
-      </c>
-    </row>
+</row>
     <row r="38">
-      <c r="A38" s="3" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D38" s="3" t="n">
-        <v>360.0</v>
-      </c>
-      <c r="E38" s="3" t="n">
-        <v>840.0</v>
-      </c>
-    </row>
+</row>
     <row r="39">
-      <c r="A39" s="3" t="n">
-        <v>37.0</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D39" s="3" t="n">
-        <v>370.0</v>
-      </c>
-      <c r="E39" s="3" t="n">
-        <v>840.0</v>
-      </c>
-    </row>
+</row>
     <row r="40">
-      <c r="A40" s="3" t="n">
-        <v>38.0</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D40" s="3" t="n">
-        <v>380.0</v>
-      </c>
-      <c r="E40" s="3" t="n">
-        <v>840.0</v>
-      </c>
-    </row>
+</row>
     <row r="41">
-      <c r="A41" s="3" t="n">
-        <v>39.0</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D41" s="3" t="n">
-        <v>390.0</v>
-      </c>
-      <c r="E41" s="3" t="n">
-        <v>840.0</v>
-      </c>
-    </row>
+</row>
     <row r="42">
-      <c r="A42" s="3" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D42" s="3" t="n">
-        <v>400.0</v>
-      </c>
-      <c r="E42" s="3" t="n">
-        <v>840.0</v>
-      </c>
-    </row>
+</row>
     <row r="43">
-      <c r="A43" s="3" t="n">
-        <v>41.0</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D43" s="3" t="n">
-        <v>410.0</v>
-      </c>
-      <c r="E43" s="3" t="n">
-        <v>840.0</v>
-      </c>
-    </row>
+</row>
     <row r="44">
-      <c r="A44" s="3" t="n">
-        <v>42.0</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D44" s="3" t="n">
-        <v>420.0</v>
-      </c>
-      <c r="E44" s="3" t="n">
-        <v>840.0</v>
-      </c>
-    </row>
+</row>
     <row r="45">
-      <c r="A45" s="3" t="n">
-        <v>43.0</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D45" s="3" t="n">
-        <v>430.0</v>
-      </c>
-      <c r="E45" s="3" t="n">
-        <v>840.0</v>
-      </c>
-    </row>
+</row>
     <row r="46">
-      <c r="A46" s="3" t="n">
-        <v>44.0</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D46" s="3" t="n">
-        <v>440.0</v>
-      </c>
-      <c r="E46" s="3" t="n">
-        <v>840.0</v>
-      </c>
-    </row>
+</row>
     <row r="47">
-      <c r="A47" s="3" t="n">
-        <v>45.0</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D47" s="3" t="n">
-        <v>450.0</v>
-      </c>
-      <c r="E47" s="3" t="n">
-        <v>840.0</v>
-      </c>
-    </row>
+</row>
     <row r="48">
-      <c r="A48" s="3" t="n">
-        <v>46.0</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D48" s="3" t="n">
-        <v>460.0</v>
-      </c>
-      <c r="E48" s="3" t="n">
-        <v>840.0</v>
-      </c>
-    </row>
+</row>
     <row r="49">
-      <c r="A49" s="3" t="n">
-        <v>47.0</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D49" s="3" t="n">
-        <v>470.0</v>
-      </c>
-      <c r="E49" s="3" t="n">
-        <v>840.0</v>
-      </c>
-    </row>
+</row>
     <row r="50">
-      <c r="A50" s="3" t="n">
-        <v>48.0</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D50" s="3" t="n">
-        <v>480.0</v>
-      </c>
-      <c r="E50" s="3" t="n">
-        <v>840.0</v>
-      </c>
-    </row>
+</row>
     <row r="51">
-      <c r="A51" s="3" t="n">
-        <v>49.0</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D51" s="3" t="n">
-        <v>490.0</v>
-      </c>
-      <c r="E51" s="3" t="n">
-        <v>840.0</v>
-      </c>
-    </row>
+</row>
     <row r="52">
-      <c r="A52" s="3" t="n">
-        <v>50.0</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D52" s="3" t="n">
-        <v>500.0</v>
-      </c>
-      <c r="E52" s="3" t="n">
-        <v>840.0</v>
-      </c>
-    </row>
+</row>
     <row r="53">
-      <c r="A53" s="3" t="n">
-        <v>51.0</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D53" s="3" t="n">
-        <v>510.0</v>
-      </c>
-      <c r="E53" s="3" t="n">
-        <v>840.0</v>
-      </c>
-    </row>
+</row>
     <row r="54">
-      <c r="A54" s="3" t="n">
-        <v>52.0</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D54" s="3" t="n">
-        <v>520.0</v>
-      </c>
-      <c r="E54" s="3" t="n">
-        <v>840.0</v>
-      </c>
-    </row>
+</row>
     <row r="55">
-      <c r="A55" s="3" t="n">
-        <v>53.0</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D55" s="3" t="n">
-        <v>530.0</v>
-      </c>
-      <c r="E55" s="3" t="n">
-        <v>840.0</v>
-      </c>
-    </row>
+</row>
     <row r="56">
-      <c r="A56" s="3" t="n">
-        <v>54.0</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D56" s="3" t="n">
-        <v>540.0</v>
-      </c>
-      <c r="E56" s="3" t="n">
-        <v>840.0</v>
-      </c>
-    </row>
+</row>
     <row r="57">
-      <c r="A57" s="3" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D57" s="3" t="n">
-        <v>550.0</v>
-      </c>
-      <c r="E57" s="3" t="n">
-        <v>840.0</v>
-      </c>
-    </row>
+</row>
     <row r="58">
-      <c r="A58" s="3" t="n">
-        <v>56.0</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D58" s="3" t="n">
-        <v>560.0</v>
-      </c>
-      <c r="E58" s="3" t="n">
-        <v>840.0</v>
-      </c>
-    </row>
+</row>
     <row r="59">
-      <c r="A59" s="3" t="n">
-        <v>57.0</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D59" s="3" t="n">
-        <v>570.0</v>
-      </c>
-      <c r="E59" s="3" t="n">
-        <v>840.0</v>
-      </c>
-    </row>
+</row>
     <row r="60">
-      <c r="A60" s="3" t="n">
-        <v>58.0</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D60" s="3" t="n">
-        <v>580.0</v>
-      </c>
-      <c r="E60" s="3" t="n">
-        <v>840.0</v>
-      </c>
-    </row>
+</row>
     <row r="61">
-      <c r="A61" s="3" t="n">
-        <v>59.0</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D61" s="3" t="n">
-        <v>590.0</v>
-      </c>
-      <c r="E61" s="3" t="n">
-        <v>840.0</v>
-      </c>
-    </row>
+</row>
     <row r="62">
-      <c r="A62" s="3" t="n">
-        <v>60.0</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D62" s="3" t="n">
-        <v>600.0</v>
-      </c>
-      <c r="E62" s="3" t="n">
-        <v>840.0</v>
-      </c>
-    </row>
+</row>
     <row r="63">
-      <c r="A63" s="3" t="n">
-        <v>61.0</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D63" s="3" t="n">
-        <v>610.0</v>
-      </c>
-      <c r="E63" s="3" t="n">
-        <v>840.0</v>
-      </c>
-    </row>
+</row>
     <row r="64">
-      <c r="A64" s="3" t="n">
-        <v>62.0</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D64" s="3" t="n">
-        <v>620.0</v>
-      </c>
-      <c r="E64" s="3" t="n">
-        <v>840.0</v>
-      </c>
-    </row>
+</row>
     <row r="65">
-      <c r="A65" s="3" t="n">
-        <v>63.0</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D65" s="3" t="n">
-        <v>630.0</v>
-      </c>
-      <c r="E65" s="3" t="n">
-        <v>840.0</v>
-      </c>
-    </row>
+</row>
     <row r="66">
-      <c r="A66" s="3" t="n">
-        <v>64.0</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D66" s="3" t="n">
-        <v>640.0</v>
-      </c>
-      <c r="E66" s="3" t="n">
-        <v>840.0</v>
-      </c>
-    </row>
+</row>
     <row r="67">
-      <c r="A67" s="3" t="n">
-        <v>65.0</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D67" s="3" t="n">
-        <v>650.0</v>
-      </c>
-      <c r="E67" s="3" t="n">
-        <v>840.0</v>
-      </c>
-    </row>
+</row>
     <row r="68">
-      <c r="A68" s="3" t="n">
-        <v>66.0</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D68" s="3" t="n">
-        <v>660.0</v>
-      </c>
-      <c r="E68" s="3" t="n">
-        <v>840.0</v>
-      </c>
-    </row>
+</row>
     <row r="69">
-      <c r="A69" s="3" t="n">
-        <v>67.0</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D69" s="3" t="n">
-        <v>670.0</v>
-      </c>
-      <c r="E69" s="3" t="n">
-        <v>840.0</v>
-      </c>
-    </row>
+</row>
     <row r="70">
-      <c r="A70" s="3" t="n">
-        <v>68.0</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D70" s="3" t="n">
-        <v>680.0</v>
-      </c>
-      <c r="E70" s="3" t="n">
-        <v>840.0</v>
-      </c>
-    </row>
+</row>
     <row r="71">
-      <c r="A71" s="3" t="n">
-        <v>69.0</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D71" s="3" t="n">
-        <v>690.0</v>
-      </c>
-      <c r="E71" s="3" t="n">
-        <v>840.0</v>
-      </c>
-    </row>
+</row>
     <row r="72">
-      <c r="A72" s="3" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D72" s="3" t="n">
-        <v>700.0</v>
-      </c>
-      <c r="E72" s="3" t="n">
-        <v>840.0</v>
-      </c>
-    </row>
+</row>
     <row r="73">
-      <c r="A73" s="3" t="n">
-        <v>71.0</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D73" s="3" t="n">
-        <v>710.0</v>
-      </c>
-      <c r="E73" s="3" t="n">
-        <v>840.0</v>
-      </c>
-    </row>
+</row>
     <row r="74">
-      <c r="A74" s="3" t="n">
-        <v>72.0</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D74" s="3" t="n">
-        <v>720.0</v>
-      </c>
-      <c r="E74" s="3" t="n">
-        <v>840.0</v>
-      </c>
-    </row>
+</row>
     <row r="75">
-      <c r="A75" s="3" t="n">
-        <v>73.0</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D75" s="3" t="n">
-        <v>730.0</v>
-      </c>
-      <c r="E75" s="3" t="n">
-        <v>840.0</v>
-      </c>
-    </row>
+</row>
     <row r="76">
-      <c r="A76" s="3" t="n">
-        <v>74.0</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D76" s="3" t="n">
-        <v>740.0</v>
-      </c>
-      <c r="E76" s="3" t="n">
-        <v>840.0</v>
-      </c>
-    </row>
+</row>
     <row r="77">
-      <c r="A77" s="3" t="n">
-        <v>75.0</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D77" s="3" t="n">
-        <v>750.0</v>
-      </c>
-      <c r="E77" s="3" t="n">
-        <v>840.0</v>
-      </c>
-    </row>
+</row>
     <row r="78">
-      <c r="A78" s="3" t="n">
-        <v>76.0</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D78" s="3" t="n">
-        <v>760.0</v>
-      </c>
-      <c r="E78" s="3" t="n">
-        <v>840.0</v>
-      </c>
-    </row>
+</row>
     <row r="79">
-      <c r="A79" s="3" t="n">
-        <v>77.0</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D79" s="3" t="n">
-        <v>770.0</v>
-      </c>
-      <c r="E79" s="3" t="n">
-        <v>840.0</v>
-      </c>
-    </row>
+</row>
     <row r="80">
-      <c r="A80" s="3" t="n">
-        <v>78.0</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D80" s="3" t="n">
-        <v>780.0</v>
-      </c>
-      <c r="E80" s="3" t="n">
-        <v>840.0</v>
-      </c>
-    </row>
+</row>
     <row r="81">
-      <c r="A81" s="3" t="n">
-        <v>79.0</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D81" s="3" t="n">
-        <v>790.0</v>
-      </c>
-      <c r="E81" s="3" t="n">
-        <v>840.0</v>
-      </c>
-    </row>
+</row>
     <row r="82">
-      <c r="A82" s="3" t="n">
-        <v>80.0</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D82" s="3" t="n">
-        <v>800.0</v>
-      </c>
-      <c r="E82" s="3" t="n">
-        <v>840.0</v>
-      </c>
-    </row>
+</row>
     <row r="83">
-      <c r="A83" s="3" t="n">
-        <v>81.0</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D83" s="3" t="n">
-        <v>810.0</v>
-      </c>
-      <c r="E83" s="3" t="n">
-        <v>840.0</v>
-      </c>
-    </row>
+</row>
     <row r="84">
-      <c r="A84" s="3" t="n">
-        <v>82.0</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D84" s="3" t="n">
-        <v>820.0</v>
-      </c>
-      <c r="E84" s="3" t="n">
-        <v>840.0</v>
-      </c>
-    </row>
+</row>
     <row r="85">
-      <c r="A85" s="3" t="n">
-        <v>83.0</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D85" s="3" t="n">
-        <v>830.0</v>
-      </c>
-      <c r="E85" s="3" t="n">
-        <v>840.0</v>
-      </c>
-    </row>
+</row>
     <row r="86">
-      <c r="A86" s="3" t="n">
-        <v>84.0</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D86" s="3" t="n">
-        <v>840.0</v>
-      </c>
-      <c r="E86" s="3" t="n">
-        <v>840.0</v>
-      </c>
-    </row>
+</row>
     <row r="87">
-      <c r="A87" s="3" t="n">
-        <v>85.0</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D87" s="3" t="n">
-        <v>850.0</v>
-      </c>
-      <c r="E87" s="3" t="n">
-        <v>840.0</v>
-      </c>
-    </row>
+</row>
     <row r="88">
-      <c r="A88" s="3" t="n">
-        <v>86.0</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D88" s="3" t="n">
-        <v>860.0</v>
-      </c>
-      <c r="E88" s="3" t="n">
-        <v>840.0</v>
-      </c>
-    </row>
+</row>
     <row r="89">
-      <c r="A89" s="3" t="n">
-        <v>87.0</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D89" s="3" t="n">
-        <v>870.0</v>
-      </c>
-      <c r="E89" s="3" t="n">
-        <v>840.0</v>
-      </c>
-    </row>
+</row>
     <row r="90">
-      <c r="A90" s="3" t="n">
-        <v>88.0</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D90" s="3" t="n">
-        <v>880.0</v>
-      </c>
-      <c r="E90" s="3" t="n">
-        <v>840.0</v>
-      </c>
-    </row>
+</row>
     <row r="91">
-      <c r="A91" s="3" t="n">
-        <v>89.0</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D91" s="3" t="n">
-        <v>890.0</v>
-      </c>
-      <c r="E91" s="3" t="n">
-        <v>840.0</v>
-      </c>
-    </row>
+</row>
     <row r="92">
-      <c r="A92" s="3" t="n">
-        <v>90.0</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D92" s="3" t="n">
-        <v>900.0</v>
-      </c>
-      <c r="E92" s="3" t="n">
-        <v>840.0</v>
-      </c>
-    </row>
+</row>
     <row r="93">
-      <c r="A93" s="3" t="n">
-        <v>91.0</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D93" s="3" t="n">
-        <v>910.0</v>
-      </c>
-      <c r="E93" s="3" t="n">
-        <v>840.0</v>
-      </c>
-    </row>
+</row>
     <row r="94">
-      <c r="A94" s="3" t="n">
-        <v>92.0</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D94" s="3" t="n">
-        <v>920.0</v>
-      </c>
-      <c r="E94" s="3" t="n">
-        <v>840.0</v>
-      </c>
-    </row>
+</row>
     <row r="95">
-      <c r="A95" s="3" t="n">
-        <v>93.0</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D95" s="3" t="n">
-        <v>930.0</v>
-      </c>
-      <c r="E95" s="3" t="n">
-        <v>840.0</v>
-      </c>
-    </row>
+</row>
     <row r="96">
-      <c r="A96" s="3" t="n">
-        <v>94.0</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D96" s="3" t="n">
-        <v>940.0</v>
-      </c>
-      <c r="E96" s="3" t="n">
-        <v>840.0</v>
-      </c>
-    </row>
+</row>
     <row r="97">
-      <c r="A97" s="3" t="n">
-        <v>95.0</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D97" s="3" t="n">
-        <v>950.0</v>
-      </c>
-      <c r="E97" s="3" t="n">
-        <v>840.0</v>
-      </c>
-    </row>
+</row>
     <row r="98">
-      <c r="A98" s="3" t="n">
-        <v>96.0</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D98" s="3" t="n">
-        <v>960.0</v>
-      </c>
-      <c r="E98" s="3" t="n">
-        <v>840.0</v>
-      </c>
-    </row>
+</row>
     <row r="99">
-      <c r="A99" s="3" t="n">
-        <v>97.0</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D99" s="3" t="n">
-        <v>970.0</v>
-      </c>
-      <c r="E99" s="3" t="n">
-        <v>840.0</v>
-      </c>
-    </row>
+</row>
     <row r="100">
-      <c r="A100" s="3" t="n">
-        <v>98.0</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D100" s="3" t="n">
-        <v>980.0</v>
-      </c>
-      <c r="E100" s="3" t="n">
-        <v>840.0</v>
-      </c>
-    </row>
+</row>
     <row r="101">
-      <c r="A101" s="3" t="n">
-        <v>99.0</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D101" s="3" t="n">
-        <v>990.0</v>
-      </c>
-      <c r="E101" s="3" t="n">
-        <v>840.0</v>
-      </c>
-    </row>
+</row>
     <row r="102">
-      <c r="A102" s="3" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D102" s="3" t="n">
-        <v>1000.0</v>
-      </c>
-      <c r="E102" s="3" t="n">
-        <v>840.0</v>
-      </c>
-    </row>
+</row>
     <row r="103">
-      <c r="A103" s="3" t="n">
-        <v>101.0</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D103" s="3" t="n">
-        <v>1010.0</v>
-      </c>
-      <c r="E103" s="3" t="n">
-        <v>840.0</v>
-      </c>
-    </row>
+</row>
     <row r="104">
-      <c r="A104" s="3" t="n">
-        <v>102.0</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D104" s="3" t="n">
-        <v>1020.0</v>
-      </c>
-      <c r="E104" s="3" t="n">
-        <v>840.0</v>
-      </c>
-    </row>
+</row>
     <row r="105">
-      <c r="A105" s="3" t="n">
-        <v>103.0</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D105" s="3" t="n">
-        <v>1030.0</v>
-      </c>
-      <c r="E105" s="3" t="n">
-        <v>840.0</v>
-      </c>
-    </row>
+</row>
     <row r="106">
-      <c r="A106" s="3" t="n">
-        <v>104.0</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D106" s="3" t="n">
-        <v>1040.0</v>
-      </c>
-      <c r="E106" s="3" t="n">
-        <v>840.0</v>
-      </c>
-    </row>
+</row>
     <row r="107">
-      <c r="A107" s="3" t="n">
-        <v>105.0</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D107" s="3" t="n">
-        <v>1050.0</v>
-      </c>
-      <c r="E107" s="3" t="n">
-        <v>840.0</v>
-      </c>
-    </row>
+</row>
     <row r="108">
-      <c r="A108" s="3" t="n">
-        <v>106.0</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D108" s="3" t="n">
-        <v>1060.0</v>
-      </c>
-      <c r="E108" s="3" t="n">
-        <v>840.0</v>
-      </c>
-    </row>
+</row>
     <row r="109">
-      <c r="A109" s="3" t="n">
-        <v>107.0</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D109" s="3" t="n">
-        <v>1070.0</v>
-      </c>
-      <c r="E109" s="3" t="n">
-        <v>840.0</v>
-      </c>
-    </row>
+</row>
     <row r="110">
 </row>
     <row r="111">
 </row>
     <row r="112">
-</row>
-    <row r="113">
-</row>
-    <row r="114">
-</row>
-    <row r="115">
-</row>
-    <row r="116">
-</row>
-    <row r="117">
-</row>
-    <row r="118">
-</row>
-    <row r="119">
-</row>
-    <row r="120">
-</row>
-    <row r="121">
-</row>
-    <row r="122">
-</row>
-    <row r="123">
-</row>
-    <row r="124">
-</row>
-    <row r="125">
-</row>
-    <row r="126">
-</row>
-    <row r="127">
-</row>
-    <row r="128">
-</row>
-    <row r="129">
-</row>
-    <row r="130">
-</row>
-    <row r="131">
-</row>
-    <row r="132">
-</row>
-    <row r="133">
-</row>
-    <row r="134">
-</row>
-    <row r="135">
-</row>
-    <row r="136">
-</row>
-    <row r="137">
-</row>
-    <row r="138">
-</row>
-    <row r="139">
-</row>
-    <row r="140">
-</row>
-    <row r="141">
-</row>
-    <row r="142">
-</row>
-    <row r="143">
-</row>
-    <row r="144">
-</row>
-    <row r="145">
-</row>
-    <row r="146">
-</row>
-    <row r="147">
-</row>
-    <row r="148">
-</row>
-    <row r="149">
-</row>
-    <row r="150">
-</row>
-    <row r="151">
-</row>
-    <row r="152">
-</row>
-    <row r="153">
-</row>
-    <row r="154">
-</row>
-    <row r="155">
-</row>
-    <row r="156">
-</row>
-    <row r="157">
-</row>
-    <row r="158">
-</row>
-    <row r="159">
-</row>
-    <row r="160">
-</row>
-    <row r="161">
-</row>
-    <row r="162">
-</row>
-    <row r="163">
-</row>
-    <row r="164">
-</row>
-    <row r="165">
-</row>
-    <row r="166">
-</row>
-    <row r="167">
-</row>
-    <row r="168">
-</row>
-    <row r="169">
-</row>
-    <row r="170">
-</row>
-    <row r="171">
-</row>
-    <row r="172">
-</row>
-    <row r="173">
-</row>
-    <row r="174">
-</row>
-    <row r="175">
-</row>
-    <row r="176">
-</row>
-    <row r="177">
-</row>
-    <row r="178">
-</row>
-    <row r="179">
-</row>
-    <row r="180">
-</row>
-    <row r="181">
-</row>
-    <row r="182">
-</row>
-    <row r="183">
-</row>
-    <row r="184">
-</row>
-    <row r="185">
-</row>
-    <row r="186">
-</row>
-    <row r="187">
-</row>
-    <row r="188">
-</row>
-    <row r="189">
-</row>
-    <row r="190">
-</row>
-    <row r="191">
-</row>
-    <row r="192">
-</row>
-    <row r="193">
-</row>
-    <row r="194">
-</row>
-    <row r="195">
-</row>
-    <row r="196">
-</row>
-    <row r="197">
-</row>
-    <row r="198">
-</row>
-    <row r="199">
 </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -2734,18 +1012,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="4" t="s">
-        <v>118</v>
+        <v>31</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>119</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>120</v>
+        <v>33</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>121</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3">
@@ -3559,80 +1837,98 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.0" baseColWidth="10"/>
   <cols>
-    <col min="1" max="1" width="10.833333333333334" customWidth="true"/>
+    <col min="1" max="1" width="12.333333333333334" customWidth="true"/>
     <col min="2" max="2" width="3.6666666666666665" customWidth="true"/>
     <col min="3" max="3" width="17.5" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="6" t="s">
-        <v>122</v>
+        <v>35</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>123</v>
+        <v>36</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>124</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>125</v>
+        <v>38</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>126</v>
+        <v>39</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>127</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
-        <v>128</v>
+        <v>41</v>
       </c>
       <c r="B3" s="7" t="n">
         <v>20.0</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>129</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
-        <v>130</v>
+        <v>43</v>
       </c>
       <c r="B4" s="7" t="n">
         <v>1000.0</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="6" t="s">
-        <v>132</v>
+        <v>45</v>
       </c>
       <c r="B5" s="7" t="n">
         <v>5.0</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>133</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
+      <c r="A6" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="7" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
+      <c r="A7" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="7" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
+      <c r="A8" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="7" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="6"/>
@@ -4614,24 +2910,24 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="8" t="s">
-        <v>134</v>
+        <v>53</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>135</v>
+        <v>54</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>136</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" customHeight="1" ht="13.0">
       <c r="A2" s="2" t="s">
-        <v>137</v>
+        <v>56</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>138</v>
+        <v>57</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>139</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" customHeight="1" ht="13.0">
@@ -5106,18 +3402,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>134</v>
+        <v>53</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>140</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>137</v>
+        <v>56</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>141</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3">
